--- a/Data/Empleados.xlsx
+++ b/Data/Empleados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\BotCursosPlanillaMRH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C8109-6709-4F5E-A1ED-8492C93FF6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="5610"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListaEmpleados" sheetId="1" r:id="rId1"/>
@@ -24,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>Nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="356">
+  <si>
+    <t>Nombre(s)</t>
+  </si>
+  <si>
+    <t>PrimerApellido</t>
+  </si>
+  <si>
+    <t>SegundoApellido</t>
   </si>
   <si>
     <t>Correo</t>
@@ -41,26 +48,1058 @@
     <t>Negotiation Associate</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Aída Monserrat Rodríguez Alvarado</t>
+    <t>Aída Monserrat</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
   </si>
   <si>
     <t>aida.rodriguez@beeckerco.com</t>
   </si>
   <si>
-    <t>Brandon Armando Gonzalez Flores</t>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Alan Eduardo</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>alan.vega@beeckerco.com</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>alberto.perez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Chiquillo</t>
+  </si>
+  <si>
+    <t>alberto.vazquez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Alejo</t>
+  </si>
+  <si>
+    <t>Baltazar</t>
+  </si>
+  <si>
+    <t>Roze</t>
+  </si>
+  <si>
+    <t>alejo.roze@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Bobadila</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>alfredo.bobadilla@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Andrea Isabel</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Payan</t>
+  </si>
+  <si>
+    <t>andrea.cervantes@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>Angélica Jhovana</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>angelica.moreno@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>ariana.barrios@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>arturo.magallanes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Brandon Armando</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Flores</t>
   </si>
   <si>
     <t>brandon.gonzalez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Brandon Daniel</t>
+  </si>
+  <si>
+    <t>Sotelo</t>
+  </si>
+  <si>
+    <t>brandon.sotelo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Bryan Alberto</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>bryan.gonzalez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Carlos Abraham</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>carlos.díaz@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Carlos Daniel</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>carlos.hernandez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Carlos Garet</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>carlos.garcia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Chrystian Jesus</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Pacheco</t>
+  </si>
+  <si>
+    <t>chrystian.castillo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Cinthya</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>cinthya.cruz@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Cynthia Itzel</t>
+  </si>
+  <si>
+    <t>Betancourt</t>
+  </si>
+  <si>
+    <t>cynthia.betancourt@beeckerco.com</t>
+  </si>
+  <si>
+    <t>David Israel</t>
+  </si>
+  <si>
+    <t>Armendariz</t>
+  </si>
+  <si>
+    <t>Navarrete</t>
+  </si>
+  <si>
+    <t>darmendariz@beeckerco.com</t>
+  </si>
+  <si>
+    <t>David Eduardo</t>
+  </si>
+  <si>
+    <t>Quevedo</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>david.quevedo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>david.sanchez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Diana Laura</t>
+  </si>
+  <si>
+    <t>Álvarez</t>
+  </si>
+  <si>
+    <t>diana.gutierrez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Édgar Antonio</t>
+  </si>
+  <si>
+    <t>edgar.martinez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>completado</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Vázquez</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>eduardo.vazquez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Elias Ramses</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>Agüero</t>
+  </si>
+  <si>
+    <t>elias.villanueva@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Erick Jesús</t>
+  </si>
+  <si>
+    <t>Dublán</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>erick.dublan@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Erick Jovani</t>
+  </si>
+  <si>
+    <t>erick.sanchez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Fabiola</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Bartolo</t>
+  </si>
+  <si>
+    <t>fabiola.ramirez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Elizalde</t>
+  </si>
+  <si>
+    <t>Espinoza</t>
+  </si>
+  <si>
+    <t>fernando.elizalde@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Fernando Ariel</t>
+  </si>
+  <si>
+    <t>Leibowich</t>
+  </si>
+  <si>
+    <t>Beker</t>
+  </si>
+  <si>
+    <t>fernando.leibowich@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Geovanni</t>
+  </si>
+  <si>
+    <t>Méndez</t>
+  </si>
+  <si>
+    <t>geovanni.mendez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>Mata</t>
+  </si>
+  <si>
+    <t>Adimari</t>
+  </si>
+  <si>
+    <t>florencia.mata@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Francia Isela</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Francia Gabriela</t>
+  </si>
+  <si>
+    <t>francia.segura@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>giovanni.garcia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>gloria.ramos@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Griselda Carolina</t>
+  </si>
+  <si>
+    <t>Leija</t>
+  </si>
+  <si>
+    <t>Dena</t>
+  </si>
+  <si>
+    <t>griselda.leija@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>Hatziry Angélica</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t>hatziry.gonzalez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Hector Adrián</t>
+  </si>
+  <si>
+    <t>Rosado</t>
+  </si>
+  <si>
+    <t>Huicab</t>
+  </si>
+  <si>
+    <t>hector.rosado@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Héctor Misael</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>misael.franco@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Bahena</t>
+  </si>
+  <si>
+    <t>Ocampo</t>
+  </si>
+  <si>
+    <t>hugo.bahena@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>Carreto</t>
+  </si>
+  <si>
+    <t>humberto.carreto@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Isayd Ubaldo</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>isayd.mejia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>ivan.santana@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jasiel Mephiboset</t>
+  </si>
+  <si>
+    <t>Lagunas</t>
+  </si>
+  <si>
+    <t>Arango</t>
+  </si>
+  <si>
+    <t>jasiel.lagunas@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Javier Angel</t>
+  </si>
+  <si>
+    <t>Casiano</t>
+  </si>
+  <si>
+    <t>Millan</t>
+  </si>
+  <si>
+    <t>javier.casiano@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Guillen</t>
+  </si>
+  <si>
+    <t>Turcio</t>
+  </si>
+  <si>
+    <t>javier.guillen@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jesús Arturo</t>
+  </si>
+  <si>
+    <t>Dorantes</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>jesus.dorantes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>gerardo.cruz@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jonathan Obed</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Áviles</t>
+  </si>
+  <si>
+    <t>jonathan.reyes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Piza</t>
+  </si>
+  <si>
+    <t>jonathan.piza@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jorge Alberto</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>jorge.gomez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Jose Antonio</t>
+  </si>
+  <si>
+    <t>Cano</t>
+  </si>
+  <si>
+    <t>antonio.torres@beeckerco.com</t>
+  </si>
+  <si>
+    <t>José Daniel</t>
+  </si>
+  <si>
+    <t>Nolasco</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>jose.nolasco@beeckerco.com</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>jose.torres@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Suastegui</t>
+  </si>
+  <si>
+    <t>juan.mendoza@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Juan Daniel</t>
+  </si>
+  <si>
+    <t>Esparaza</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>juan.esparza@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>juan.flores@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>julio.rodriguez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Tovar</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>karina.tovar@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Keyla Genoveva</t>
+  </si>
+  <si>
+    <t>Legaspi</t>
+  </si>
+  <si>
+    <t>keyla.garcia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>liliana.contreras@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Lizbeth</t>
+  </si>
+  <si>
+    <t>Beristain</t>
+  </si>
+  <si>
+    <t>Buendia</t>
+  </si>
+  <si>
+    <t>lizbeth.beristain@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Lizeth Cristina</t>
+  </si>
+  <si>
+    <t>Aldana</t>
+  </si>
+  <si>
+    <t>lizeth.mejia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Luis Darío</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>luis.mota@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>luis.garcia@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Luis Felipe</t>
+  </si>
+  <si>
+    <t>luis.ramos@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Luis Fernando</t>
+  </si>
+  <si>
+    <t>luis.ramirez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Luis Giovanny</t>
+  </si>
+  <si>
+    <t>Alcantara</t>
+  </si>
+  <si>
+    <t>Lubiano</t>
+  </si>
+  <si>
+    <t>luis.alcantara@beeckerco.com</t>
+  </si>
+  <si>
+    <t>¿?</t>
+  </si>
+  <si>
+    <t>Magaly Diana</t>
+  </si>
+  <si>
+    <t>Leana</t>
+  </si>
+  <si>
+    <t>Fierros</t>
+  </si>
+  <si>
+    <t>magaly.leana@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>mariana.miguel@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Mercedes Ollincihuatl</t>
+  </si>
+  <si>
+    <t>Arontes</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>mercedes.arontes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Jesús Guadalupe</t>
+  </si>
+  <si>
+    <t>jesus.flores@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Policarpo</t>
+  </si>
+  <si>
+    <t>Bacilio</t>
+  </si>
+  <si>
+    <t>miguel.policarpo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
+  </si>
+  <si>
+    <t>miguel.velazquez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Milagros Del Valle</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>milagros.hidalgo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Garces</t>
+  </si>
+  <si>
+    <t>montserrat.reyes@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>Nicky</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>nicky.hernadez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Omar Alejandro</t>
+  </si>
+  <si>
+    <t>Román</t>
+  </si>
+  <si>
+    <t>omar.cervantes@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>omar.cruz@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Omar Israel</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>omar.martinez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Omar Miguel</t>
+  </si>
+  <si>
+    <t>omar.velazquez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Reyna</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>pablo.reyna@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Ramón Alberto</t>
+  </si>
+  <si>
+    <t>ramon.gonzalez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Richard Christopher</t>
+  </si>
+  <si>
+    <t>richard.rodriguez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Sobrevilla</t>
+  </si>
+  <si>
+    <t>Bustamante</t>
+  </si>
+  <si>
+    <t>samuel.sobrevilla@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Sheila Guadalupe</t>
+  </si>
+  <si>
+    <t>Ocampos</t>
+  </si>
+  <si>
+    <t>Pantaleon</t>
+  </si>
+  <si>
+    <t>sheila.campos@beeckerco.com</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>Tanya Zarahi</t>
+  </si>
+  <si>
+    <t>Palacios</t>
+  </si>
+  <si>
+    <t>tanya.cabrera@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Tere Vianney</t>
+  </si>
+  <si>
+    <t>vianney.sanchez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Iván Ulises</t>
+  </si>
+  <si>
+    <t>Barragán</t>
+  </si>
+  <si>
+    <t>Valdovinos</t>
+  </si>
+  <si>
+    <t>ivan.barragan@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Víctor José de Jesús</t>
+  </si>
+  <si>
+    <t>Juárez</t>
+  </si>
+  <si>
+    <t>victor.juarez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>victor.santiago@beeckerco.com</t>
+  </si>
+  <si>
+    <t>miguel.fernandez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Allisson Giselle</t>
+  </si>
+  <si>
+    <t>allisson.flores@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Andrea Michelle</t>
+  </si>
+  <si>
+    <t>Rascon</t>
+  </si>
+  <si>
+    <t>de la Paz</t>
+  </si>
+  <si>
+    <t>andrea.rascon@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Yatziri Esmeralda</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>yatziri.barrera@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Juan Jose</t>
+  </si>
+  <si>
+    <t>juan.martinez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Erick Roger</t>
+  </si>
+  <si>
+    <t>Rogel</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>erick.rogel@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Ana Karen</t>
+  </si>
+  <si>
+    <t>Cedillo</t>
+  </si>
+  <si>
+    <t>ana.cedillo@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Miguel Salvador</t>
+  </si>
+  <si>
+    <t>Arrellano</t>
+  </si>
+  <si>
+    <t>miguel.arellano@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>Jorge Andrés</t>
+  </si>
+  <si>
+    <t>Popoca</t>
+  </si>
+  <si>
+    <t>jorge.barrios@kirjner.edu.mx</t>
+  </si>
+  <si>
+    <t>Luis Angel</t>
+  </si>
+  <si>
+    <t>Casillas</t>
+  </si>
+  <si>
+    <t>luis.rosas@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>hector.santiago@beeckerco.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +1112,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -114,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,11 +1425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,11 +1437,13 @@
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,43 +1459,2242 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" t="s">
+        <v>285</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" t="s">
+        <v>297</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>305</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>310</v>
+      </c>
+      <c r="G89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>312</v>
+      </c>
+      <c r="D90" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>320</v>
+      </c>
+      <c r="B93" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>323</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>325</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>326</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>328</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" t="s">
+        <v>332</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>335</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" t="s">
+        <v>337</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>344</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" t="s">
+        <v>350</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" t="s">
+        <v>355</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Empleados.xlsx
+++ b/Data/Empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\BotCursosPlanillaMRH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C8109-6709-4F5E-A1ED-8492C93FF6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDF7AB-95B4-4672-8233-96B7A1F49949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListaEmpleados" sheetId="1" r:id="rId1"/>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
